--- a/medicine/Psychotrope/Brauerei_Karg/Brauerei_Karg.xlsx
+++ b/medicine/Psychotrope/Brauerei_Karg/Brauerei_Karg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Brauerei Karg est une brasserie à Murnau am Staffelsee.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur le site de la brasserie Karg à Murnau Untermarkt, il y avait le Weißbierbrauerei Hirschvogel, acheté par Andreas Karg en 1912. En 1977, il confie l'affaire à son neveu Franz Schubert, dont la fille, Victoria Schubert-Rapp, est codirectrice générale depuis 2008. Pour des raisons d'espace, la brasserie Karg s'est spécialisée dans la bière de froment à fermentation haute. En 1980, des bières à fermentation basse furent également brassées.
-La brasserie Karg eut une petite célébrité lorsque le président américain Barack Obama boit en 2015 une bière de la brasserie au moment du sommet du G7 de 2015 à Schloss Elmau lors d'une visite à Krün[1].
+La brasserie Karg eut une petite célébrité lorsque le président américain Barack Obama boit en 2015 une bière de la brasserie au moment du sommet du G7 de 2015 à Schloss Elmau lors d'une visite à Krün.
 Depuis début 2018, Karg s'occupe de l'animation du Freilichtmuseum Glentleiten, où sont préparées des bières à fermentation basse.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Helles Weißbier
 Dunkles Weißbier
